--- a/data/pca/factorExposure/factorExposure_2018-06-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01750364596353218</v>
+        <v>-0.02225522105921197</v>
       </c>
       <c r="C2">
-        <v>-0.02727062575992695</v>
+        <v>0.01721540066562634</v>
       </c>
       <c r="D2">
-        <v>0.01127266935190947</v>
+        <v>0.02398704360753974</v>
       </c>
       <c r="E2">
-        <v>0.02260800550237357</v>
+        <v>0.01392988776883934</v>
       </c>
       <c r="F2">
-        <v>0.1136122506349845</v>
+        <v>-0.01087241686083438</v>
       </c>
       <c r="G2">
-        <v>0.0639570216783702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.05075600189097054</v>
+      </c>
+      <c r="H2">
+        <v>-0.04600661068053093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.09482704540508319</v>
+        <v>-0.08961420077749059</v>
       </c>
       <c r="C3">
-        <v>-0.01504171016007052</v>
+        <v>-0.01665680434487389</v>
       </c>
       <c r="D3">
-        <v>0.09494244737666055</v>
+        <v>0.04489398716527168</v>
       </c>
       <c r="E3">
-        <v>0.05987757068165517</v>
+        <v>0.004452131413578618</v>
       </c>
       <c r="F3">
-        <v>0.3815103267145428</v>
+        <v>-0.008123064714922792</v>
       </c>
       <c r="G3">
-        <v>0.1815691892378399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1891316896051225</v>
+      </c>
+      <c r="H3">
+        <v>-0.1625910594049712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04136279116958847</v>
+        <v>-0.04959177342936819</v>
       </c>
       <c r="C4">
-        <v>-0.001999185149687228</v>
+        <v>0.001873953924129674</v>
       </c>
       <c r="D4">
-        <v>-0.02283776244266186</v>
+        <v>0.05021285356480171</v>
       </c>
       <c r="E4">
-        <v>-0.03899021078044712</v>
+        <v>-0.02143083509474341</v>
       </c>
       <c r="F4">
-        <v>0.08010095643781262</v>
+        <v>-0.05383380700759077</v>
       </c>
       <c r="G4">
-        <v>0.04873554485560067</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03322036076455638</v>
+      </c>
+      <c r="H4">
+        <v>-0.05231300445001239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02556487125406646</v>
+        <v>-0.03074908625913158</v>
       </c>
       <c r="C6">
-        <v>-0.006275986799907199</v>
+        <v>-0.0004706117445278362</v>
       </c>
       <c r="D6">
-        <v>0.000698711306835442</v>
+        <v>0.05554546512777082</v>
       </c>
       <c r="E6">
-        <v>-0.02379946681187634</v>
+        <v>-0.005428666755995537</v>
       </c>
       <c r="F6">
-        <v>0.02619740107317496</v>
+        <v>-0.03211486365516886</v>
       </c>
       <c r="G6">
-        <v>-0.006367785694665902</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.0102720900169299</v>
+      </c>
+      <c r="H6">
+        <v>-0.06091277512540799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01961536629025589</v>
+        <v>-0.02431939342790334</v>
       </c>
       <c r="C7">
-        <v>-0.007097098880388047</v>
+        <v>0.0006495142762299403</v>
       </c>
       <c r="D7">
-        <v>0.01213608029869431</v>
+        <v>0.02990156468476918</v>
       </c>
       <c r="E7">
-        <v>-0.02495588901293238</v>
+        <v>-0.04358068103477903</v>
       </c>
       <c r="F7">
-        <v>0.05028286766150894</v>
+        <v>-0.007501434198344772</v>
       </c>
       <c r="G7">
-        <v>0.0633400693725328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02228562298011408</v>
+      </c>
+      <c r="H7">
+        <v>-0.03800538017825799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01707789148210333</v>
+        <v>-0.007910796398290581</v>
       </c>
       <c r="C8">
-        <v>-0.0117987383668241</v>
+        <v>-0.002712405906734245</v>
       </c>
       <c r="D8">
-        <v>-0.0006958416621034146</v>
+        <v>0.01154528510692153</v>
       </c>
       <c r="E8">
-        <v>-0.03157733941494405</v>
+        <v>-0.007780492491635193</v>
       </c>
       <c r="F8">
-        <v>0.1009282995614994</v>
+        <v>-0.02305323502790838</v>
       </c>
       <c r="G8">
-        <v>0.05233317684296266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04169457298747396</v>
+      </c>
+      <c r="H8">
+        <v>-0.0386027358550364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03279613551291779</v>
+        <v>-0.03941730630926382</v>
       </c>
       <c r="C9">
-        <v>-0.008572055489495566</v>
+        <v>-0.001462678273014407</v>
       </c>
       <c r="D9">
-        <v>-0.01026799368860182</v>
+        <v>0.03817486590546635</v>
       </c>
       <c r="E9">
-        <v>-0.03416070252149714</v>
+        <v>-0.01045523352781369</v>
       </c>
       <c r="F9">
-        <v>0.08720383477380381</v>
+        <v>-0.03090679377015589</v>
       </c>
       <c r="G9">
-        <v>0.05987070240834166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04251059664707548</v>
+      </c>
+      <c r="H9">
+        <v>-0.05118578341907538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.039602718207681</v>
+        <v>-0.0942563937260842</v>
       </c>
       <c r="C10">
-        <v>0.07245525196780171</v>
+        <v>-0.008390569572626768</v>
       </c>
       <c r="D10">
-        <v>-0.0396120679031562</v>
+        <v>-0.1711003065188337</v>
       </c>
       <c r="E10">
-        <v>0.1365782720672333</v>
+        <v>0.002523776045361753</v>
       </c>
       <c r="F10">
-        <v>0.04406797503704162</v>
+        <v>0.03333403342765345</v>
       </c>
       <c r="G10">
-        <v>-0.00563305424723025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.03568599316102004</v>
+      </c>
+      <c r="H10">
+        <v>-0.008387617352843072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03136566993844054</v>
+        <v>-0.02569821716540711</v>
       </c>
       <c r="C11">
-        <v>-0.02558376609711503</v>
+        <v>-0.01216482509548718</v>
       </c>
       <c r="D11">
-        <v>0.007164610588938651</v>
+        <v>0.04484537427729832</v>
       </c>
       <c r="E11">
-        <v>-0.0279270158289624</v>
+        <v>0.0007748395245728683</v>
       </c>
       <c r="F11">
-        <v>0.04815619376086264</v>
+        <v>-0.01526719350584884</v>
       </c>
       <c r="G11">
-        <v>0.02476211626658941</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02536403838273163</v>
+      </c>
+      <c r="H11">
+        <v>-0.04661582122379709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0394091387381202</v>
+        <v>-0.03027466288135947</v>
       </c>
       <c r="C12">
-        <v>-0.02489558836610874</v>
+        <v>-0.008893629810644758</v>
       </c>
       <c r="D12">
-        <v>-0.002091761133115203</v>
+        <v>0.04361975890926167</v>
       </c>
       <c r="E12">
-        <v>-0.03751111787005457</v>
+        <v>-0.008604189353265412</v>
       </c>
       <c r="F12">
-        <v>0.0326508652533581</v>
+        <v>-0.0179504968484919</v>
       </c>
       <c r="G12">
-        <v>0.00937707168044674</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.006288021445093718</v>
+      </c>
+      <c r="H12">
+        <v>-0.02037782071081098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01428728268646582</v>
+        <v>-0.03088350212701545</v>
       </c>
       <c r="C13">
-        <v>-0.01994056874267799</v>
+        <v>0.01210613978323498</v>
       </c>
       <c r="D13">
-        <v>-0.005425791241156864</v>
+        <v>0.01457098716674211</v>
       </c>
       <c r="E13">
-        <v>0.00823651967225545</v>
+        <v>0.009236343072962526</v>
       </c>
       <c r="F13">
-        <v>0.07850668876192843</v>
+        <v>-0.02871656842746996</v>
       </c>
       <c r="G13">
-        <v>0.04254907881168901</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06055082980441523</v>
+      </c>
+      <c r="H13">
+        <v>-0.07174821170205192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0148608707705094</v>
+        <v>-0.01937322657648411</v>
       </c>
       <c r="C14">
-        <v>-0.001014278966408374</v>
+        <v>7.357864248368785e-06</v>
       </c>
       <c r="D14">
-        <v>-0.009271453756157426</v>
+        <v>0.008875134693893238</v>
       </c>
       <c r="E14">
-        <v>-0.02737842782965264</v>
+        <v>-0.01477692539899722</v>
       </c>
       <c r="F14">
-        <v>0.05719187237645634</v>
+        <v>-0.01951224394612954</v>
       </c>
       <c r="G14">
-        <v>0.05933153128631898</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.03861179890240577</v>
+      </c>
+      <c r="H14">
+        <v>-0.009675124929445391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02523933639497149</v>
+        <v>-0.02593864207825478</v>
       </c>
       <c r="C16">
-        <v>-0.02605302078391791</v>
+        <v>-0.01166721592454748</v>
       </c>
       <c r="D16">
-        <v>0.002914717449345254</v>
+        <v>0.03743831765186281</v>
       </c>
       <c r="E16">
-        <v>-0.02368474547967919</v>
+        <v>-0.00271596485879482</v>
       </c>
       <c r="F16">
-        <v>0.05526380962805134</v>
+        <v>-0.01969019220065409</v>
       </c>
       <c r="G16">
-        <v>0.027652132143639</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02075252779575713</v>
+      </c>
+      <c r="H16">
+        <v>-0.03471184367670441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03475958560974056</v>
+        <v>-0.03810326792451252</v>
       </c>
       <c r="C19">
-        <v>-0.03036763039041103</v>
+        <v>-0.001823034942312093</v>
       </c>
       <c r="D19">
-        <v>0.01363295640858534</v>
+        <v>0.02952676533159337</v>
       </c>
       <c r="E19">
-        <v>-0.02507784418611776</v>
+        <v>-0.006440121859698917</v>
       </c>
       <c r="F19">
-        <v>0.108463664054533</v>
+        <v>-0.03135420365754704</v>
       </c>
       <c r="G19">
-        <v>0.05007134547500274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.06203660227217044</v>
+      </c>
+      <c r="H19">
+        <v>-0.06888218684633438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002660962049600897</v>
+        <v>-0.01411038864362461</v>
       </c>
       <c r="C20">
-        <v>-0.006453883019501149</v>
+        <v>0.003998690454382709</v>
       </c>
       <c r="D20">
-        <v>-0.005579486822966114</v>
+        <v>0.01881448098061785</v>
       </c>
       <c r="E20">
-        <v>-0.02136230734465568</v>
+        <v>-0.006191837094565862</v>
       </c>
       <c r="F20">
-        <v>0.07686911615997742</v>
+        <v>-0.02322000293331677</v>
       </c>
       <c r="G20">
-        <v>0.0780488309859564</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04967585404933775</v>
+      </c>
+      <c r="H20">
+        <v>-0.02485596815464446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00240373860047896</v>
+        <v>-0.01805270373460681</v>
       </c>
       <c r="C21">
-        <v>0.01954247354931818</v>
+        <v>0.006498543195210428</v>
       </c>
       <c r="D21">
-        <v>0.01935703783435411</v>
+        <v>0.01704313371325693</v>
       </c>
       <c r="E21">
-        <v>-0.0311989046451443</v>
+        <v>-0.01981155996665193</v>
       </c>
       <c r="F21">
-        <v>0.05093771093957103</v>
+        <v>-0.01400000977306687</v>
       </c>
       <c r="G21">
-        <v>0.02063909030618574</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04959319790426733</v>
+      </c>
+      <c r="H21">
+        <v>-0.04612970793797327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02771121605722931</v>
+        <v>-0.02248740719936053</v>
       </c>
       <c r="C24">
-        <v>-0.02392896132505446</v>
+        <v>-0.006029191055771434</v>
       </c>
       <c r="D24">
-        <v>-0.005217709302786559</v>
+        <v>0.0391172967015014</v>
       </c>
       <c r="E24">
-        <v>-0.009786226221130309</v>
+        <v>-0.001142912537657106</v>
       </c>
       <c r="F24">
-        <v>0.04625578566212923</v>
+        <v>-0.01432309468983017</v>
       </c>
       <c r="G24">
-        <v>0.02565404383058477</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01676825529970611</v>
+      </c>
+      <c r="H24">
+        <v>-0.04415119921819493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02849942767538749</v>
+        <v>-0.03394538876434965</v>
       </c>
       <c r="C25">
-        <v>-0.0172617979046874</v>
+        <v>-0.004078512206337732</v>
       </c>
       <c r="D25">
-        <v>0.008418952564355708</v>
+        <v>0.03867311597769465</v>
       </c>
       <c r="E25">
-        <v>-0.02858806867119118</v>
+        <v>-0.004838782217670133</v>
       </c>
       <c r="F25">
-        <v>0.05408582297301791</v>
+        <v>-0.02202989840233356</v>
       </c>
       <c r="G25">
-        <v>0.01389171277023834</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02075519413627062</v>
+      </c>
+      <c r="H25">
+        <v>-0.04303070790460765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02087921187566482</v>
+        <v>-0.01958550478199667</v>
       </c>
       <c r="C26">
-        <v>-0.01626299999631978</v>
+        <v>0.01755042829557445</v>
       </c>
       <c r="D26">
-        <v>0.02535133469430624</v>
+        <v>0.006392716144534476</v>
       </c>
       <c r="E26">
-        <v>-0.005259513715774973</v>
+        <v>0.0001349961597253573</v>
       </c>
       <c r="F26">
-        <v>0.07042843002869013</v>
+        <v>-0.004937391758492295</v>
       </c>
       <c r="G26">
-        <v>0.04416567612875859</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03302553498716703</v>
+      </c>
+      <c r="H26">
+        <v>-0.02183533065868087</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.05703067641509048</v>
+        <v>-0.02398675962807947</v>
       </c>
       <c r="C27">
-        <v>-0.02125612607146514</v>
+        <v>-0.008885422836430391</v>
       </c>
       <c r="D27">
-        <v>-0.03100163419212989</v>
+        <v>0.01321620071096914</v>
       </c>
       <c r="E27">
-        <v>-0.03064855557590692</v>
+        <v>-0.004625764318125722</v>
       </c>
       <c r="F27">
-        <v>0.0566577618387147</v>
+        <v>-0.0143616926406942</v>
       </c>
       <c r="G27">
-        <v>0.04570952533653216</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01255211694471802</v>
+      </c>
+      <c r="H27">
+        <v>0.00130610412071007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.0625150265909562</v>
+        <v>-0.137865121154855</v>
       </c>
       <c r="C28">
-        <v>0.09628547340807656</v>
+        <v>-0.0007930323520337448</v>
       </c>
       <c r="D28">
-        <v>-0.06510258569550638</v>
+        <v>-0.2316147576323669</v>
       </c>
       <c r="E28">
-        <v>0.1699302707011711</v>
+        <v>-0.003664548121983497</v>
       </c>
       <c r="F28">
-        <v>0.03109243052754929</v>
+        <v>0.03106759791697242</v>
       </c>
       <c r="G28">
-        <v>0.004545306634554395</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02299427224929338</v>
+      </c>
+      <c r="H28">
+        <v>0.001562252653506751</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01943715136151588</v>
+        <v>-0.02250983880570679</v>
       </c>
       <c r="C29">
-        <v>-0.0011620408227472</v>
+        <v>-0.00131423868300621</v>
       </c>
       <c r="D29">
-        <v>-0.01152972053465241</v>
+        <v>0.008609969935602646</v>
       </c>
       <c r="E29">
-        <v>-0.03566207415805772</v>
+        <v>-0.01517046469251008</v>
       </c>
       <c r="F29">
-        <v>0.05291478481085995</v>
+        <v>-0.02030653455532497</v>
       </c>
       <c r="G29">
-        <v>0.04940273144901454</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03604719887340702</v>
+      </c>
+      <c r="H29">
+        <v>-0.001356730095695819</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.08234785585719688</v>
+        <v>-0.06065228727654792</v>
       </c>
       <c r="C30">
-        <v>-0.06057729578959534</v>
+        <v>-0.002071364328016493</v>
       </c>
       <c r="D30">
-        <v>-0.01586079744867407</v>
+        <v>0.08528274529102937</v>
       </c>
       <c r="E30">
-        <v>-0.05321701621425316</v>
+        <v>0.03007302973349177</v>
       </c>
       <c r="F30">
-        <v>0.1102394825594351</v>
+        <v>-0.05831571448476942</v>
       </c>
       <c r="G30">
-        <v>0.05753160177346356</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.0542857927243576</v>
+      </c>
+      <c r="H30">
+        <v>-0.07099010076292846</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05650236789634714</v>
+        <v>-0.05320701837866254</v>
       </c>
       <c r="C31">
-        <v>-0.03140488076887487</v>
+        <v>-0.01277025460765104</v>
       </c>
       <c r="D31">
-        <v>0.007076995533013311</v>
+        <v>0.0178428852947683</v>
       </c>
       <c r="E31">
-        <v>-0.01045893685805087</v>
+        <v>0.004132725893679625</v>
       </c>
       <c r="F31">
-        <v>0.04222943362109259</v>
+        <v>-0.008412365377900794</v>
       </c>
       <c r="G31">
-        <v>0.05852394077581943</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01265298650407373</v>
+      </c>
+      <c r="H31">
+        <v>-0.004053979083450706</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01551746614409051</v>
+        <v>-0.01166549758683502</v>
       </c>
       <c r="C32">
-        <v>-0.009279951481508364</v>
+        <v>-0.01355466015928179</v>
       </c>
       <c r="D32">
-        <v>0.005706495844201442</v>
+        <v>0.007743277087754198</v>
       </c>
       <c r="E32">
-        <v>-0.06679005875550005</v>
+        <v>-0.03082645202611755</v>
       </c>
       <c r="F32">
-        <v>0.08372031481765616</v>
+        <v>-0.04233775629523642</v>
       </c>
       <c r="G32">
-        <v>0.04724690934158288</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.02436630263381484</v>
+      </c>
+      <c r="H32">
+        <v>-0.05458963566698412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04208785491070083</v>
+        <v>-0.04181700879738165</v>
       </c>
       <c r="C33">
-        <v>-0.03574679706232219</v>
+        <v>-0.003249969835433536</v>
       </c>
       <c r="D33">
-        <v>0.03512735545810079</v>
+        <v>0.03494701554708404</v>
       </c>
       <c r="E33">
-        <v>-0.03156610633332564</v>
+        <v>0.02215914597816359</v>
       </c>
       <c r="F33">
-        <v>0.08448488160167569</v>
+        <v>-0.008344709860279503</v>
       </c>
       <c r="G33">
-        <v>0.06224258136271132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.04397413336631908</v>
+      </c>
+      <c r="H33">
+        <v>-0.04112403444282144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02866323671894506</v>
+        <v>-0.02880708734304173</v>
       </c>
       <c r="C34">
-        <v>-0.02423169725707982</v>
+        <v>-0.01928629121715769</v>
       </c>
       <c r="D34">
-        <v>0.0003627632390141566</v>
+        <v>0.03730286186843857</v>
       </c>
       <c r="E34">
-        <v>-0.03143944808917317</v>
+        <v>-0.009497277774181188</v>
       </c>
       <c r="F34">
-        <v>0.05824316795164053</v>
+        <v>-0.02012693958758512</v>
       </c>
       <c r="G34">
-        <v>0.01576771002302219</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01598846557108847</v>
+      </c>
+      <c r="H34">
+        <v>-0.03627194602630612</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.0143060708412532</v>
+        <v>-0.02050310620878259</v>
       </c>
       <c r="C36">
-        <v>-0.0003289059420666576</v>
+        <v>0.004846534598492641</v>
       </c>
       <c r="D36">
-        <v>-0.001352855870498044</v>
+        <v>0.001990583681179468</v>
       </c>
       <c r="E36">
-        <v>-0.02238050150650129</v>
+        <v>-0.007648877797708092</v>
       </c>
       <c r="F36">
-        <v>0.03529551760025891</v>
+        <v>-0.006980417946828835</v>
       </c>
       <c r="G36">
-        <v>0.04039794606007141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01702660398881956</v>
+      </c>
+      <c r="H36">
+        <v>-0.01241333805905283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.002751076430587237</v>
+        <v>-0.02889492964356438</v>
       </c>
       <c r="C38">
-        <v>0.007649904876804951</v>
+        <v>-0.01778916113683889</v>
       </c>
       <c r="D38">
-        <v>0.02028953156892234</v>
+        <v>0.01022288001085795</v>
       </c>
       <c r="E38">
-        <v>0.02497246029459063</v>
+        <v>-1.743277342292302e-05</v>
       </c>
       <c r="F38">
-        <v>0.03770708322952995</v>
+        <v>-0.0148975211439789</v>
       </c>
       <c r="G38">
-        <v>0.0116991679476951</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02133891412011023</v>
+      </c>
+      <c r="H38">
+        <v>-0.04205998161427551</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03287941645364705</v>
+        <v>-0.02552858895527125</v>
       </c>
       <c r="C39">
-        <v>-0.04797711819749078</v>
+        <v>-0.008972239426465412</v>
       </c>
       <c r="D39">
-        <v>0.001387823125852533</v>
+        <v>0.08616685275998365</v>
       </c>
       <c r="E39">
-        <v>-0.03517749792442201</v>
+        <v>0.003308058620008051</v>
       </c>
       <c r="F39">
-        <v>0.06944352630006535</v>
+        <v>-0.02631520557406755</v>
       </c>
       <c r="G39">
-        <v>0.02826973093647805</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.03818915298918681</v>
+      </c>
+      <c r="H39">
+        <v>-0.07222057728876032</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03176272973626556</v>
+        <v>-0.03371400588503053</v>
       </c>
       <c r="C40">
-        <v>-0.06842588279670121</v>
+        <v>-0.002749366820686513</v>
       </c>
       <c r="D40">
-        <v>-0.01541669240844623</v>
+        <v>0.02751079044461088</v>
       </c>
       <c r="E40">
-        <v>0.009646396780171406</v>
+        <v>0.02223781833585002</v>
       </c>
       <c r="F40">
-        <v>0.0810618386338674</v>
+        <v>-0.03832174936395932</v>
       </c>
       <c r="G40">
-        <v>0.05166230699247536</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.01981179986123605</v>
+      </c>
+      <c r="H40">
+        <v>-0.06743041614465267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001180583169118215</v>
+        <v>-0.01029985189193833</v>
       </c>
       <c r="C41">
-        <v>0.0009407474712861281</v>
+        <v>0.00247514814679015</v>
       </c>
       <c r="D41">
-        <v>0.008794735457588949</v>
+        <v>-0.01604002498836398</v>
       </c>
       <c r="E41">
-        <v>-0.00459274013071231</v>
+        <v>0.001431546581179302</v>
       </c>
       <c r="F41">
-        <v>0.009561617985901896</v>
+        <v>0.002028920334959265</v>
       </c>
       <c r="G41">
-        <v>0.0491104524340199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.003558379085779848</v>
+      </c>
+      <c r="H41">
+        <v>0.007155688277363851</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3701189722262441</v>
+        <v>-0.1958591175337206</v>
       </c>
       <c r="C42">
-        <v>0.1317808841264144</v>
+        <v>0.05945462682781877</v>
       </c>
       <c r="D42">
-        <v>0.8158514619591797</v>
+        <v>0.2503683306262972</v>
       </c>
       <c r="E42">
-        <v>0.1865695401565919</v>
+        <v>0.206765024042977</v>
       </c>
       <c r="F42">
-        <v>-0.3008160109846812</v>
+        <v>0.9103516626610393</v>
       </c>
       <c r="G42">
-        <v>0.1281627029146115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.07716043379511262</v>
+      </c>
+      <c r="H42">
+        <v>-0.001380178224944484</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0008789476927854131</v>
+        <v>-0.01344334987599672</v>
       </c>
       <c r="C43">
-        <v>0.002539069287019027</v>
+        <v>0.002545838349073622</v>
       </c>
       <c r="D43">
-        <v>0.01440643848196769</v>
+        <v>-0.01587557444359963</v>
       </c>
       <c r="E43">
-        <v>-0.004564339543008648</v>
+        <v>0.004757581678337548</v>
       </c>
       <c r="F43">
-        <v>0.02564462233083483</v>
+        <v>0.004551037629761865</v>
       </c>
       <c r="G43">
-        <v>0.04743507479575174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.003985501644980354</v>
+      </c>
+      <c r="H43">
+        <v>-0.006379540957956125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01405891696363426</v>
+        <v>-0.02136547858783213</v>
       </c>
       <c r="C44">
-        <v>0.0006226928025606035</v>
+        <v>-0.005496817712998295</v>
       </c>
       <c r="D44">
-        <v>0.01719158518182533</v>
+        <v>0.03048366052598894</v>
       </c>
       <c r="E44">
-        <v>0.001680173877502893</v>
+        <v>-0.006607434515373543</v>
       </c>
       <c r="F44">
-        <v>0.1098269751566377</v>
+        <v>-0.006638870393344523</v>
       </c>
       <c r="G44">
-        <v>0.09087139565381802</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04130905976072077</v>
+      </c>
+      <c r="H44">
+        <v>-0.06489765302439805</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01924015199531294</v>
+        <v>-0.01776591824467235</v>
       </c>
       <c r="C46">
-        <v>-0.01886564574012626</v>
+        <v>0.004110715655706585</v>
       </c>
       <c r="D46">
-        <v>0.01333258219062078</v>
+        <v>0.01042812381651244</v>
       </c>
       <c r="E46">
-        <v>-0.03561074416823273</v>
+        <v>-0.0008294295578883182</v>
       </c>
       <c r="F46">
-        <v>0.06938970734679574</v>
+        <v>-0.01631782117097534</v>
       </c>
       <c r="G46">
-        <v>0.0614731311667315</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.0421223923574502</v>
+      </c>
+      <c r="H46">
+        <v>-0.00483218963872847</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09323860679772721</v>
+        <v>-0.0770746334101286</v>
       </c>
       <c r="C47">
-        <v>-0.03811585213820489</v>
+        <v>-0.02980542801520155</v>
       </c>
       <c r="D47">
-        <v>-0.01137480536097527</v>
+        <v>0.03980027927940505</v>
       </c>
       <c r="E47">
-        <v>-0.0283907375375748</v>
+        <v>6.810998950180716e-05</v>
       </c>
       <c r="F47">
-        <v>0.02492855963765265</v>
+        <v>-0.01572490008204483</v>
       </c>
       <c r="G47">
-        <v>0.08195429379806926</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01462217696112922</v>
+      </c>
+      <c r="H47">
+        <v>0.02209548640511188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01574189648060096</v>
+        <v>-0.02329691013015731</v>
       </c>
       <c r="C48">
-        <v>-0.006785998073082835</v>
+        <v>-0.006373631822692068</v>
       </c>
       <c r="D48">
-        <v>0.01199376198701262</v>
+        <v>0.007654658748204389</v>
       </c>
       <c r="E48">
-        <v>-0.02124167909727939</v>
+        <v>-0.001266584152332758</v>
       </c>
       <c r="F48">
-        <v>0.04800734234698273</v>
+        <v>-0.01047133335268852</v>
       </c>
       <c r="G48">
-        <v>0.0278302637343069</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02398157683337073</v>
+      </c>
+      <c r="H48">
+        <v>-0.01839704563443282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08372598124559244</v>
+        <v>-0.07363953923791462</v>
       </c>
       <c r="C50">
-        <v>-0.0360294623061559</v>
+        <v>-0.02663229809140373</v>
       </c>
       <c r="D50">
-        <v>0.01294716737084546</v>
+        <v>0.03974507895707061</v>
       </c>
       <c r="E50">
-        <v>-0.04036552666175328</v>
+        <v>-0.01387040996158279</v>
       </c>
       <c r="F50">
-        <v>0.05059971825149088</v>
+        <v>-0.01199026818482504</v>
       </c>
       <c r="G50">
-        <v>0.03724260222204049</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.003945147663353921</v>
+      </c>
+      <c r="H50">
+        <v>0.003862685734890164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01748142951630716</v>
+        <v>-0.02134714690697218</v>
       </c>
       <c r="C51">
-        <v>0.009163534457537714</v>
+        <v>0.001086501244792801</v>
       </c>
       <c r="D51">
-        <v>0.01209116449578634</v>
+        <v>0.0004128704829954825</v>
       </c>
       <c r="E51">
-        <v>0.01942171888531326</v>
+        <v>-0.0071221610914957</v>
       </c>
       <c r="F51">
-        <v>0.1078194613382564</v>
+        <v>-0.001012332902749855</v>
       </c>
       <c r="G51">
-        <v>0.05317917270633409</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05313307527711516</v>
+      </c>
+      <c r="H51">
+        <v>-0.05801927180861503</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09755428831589574</v>
+        <v>-0.09582317250355252</v>
       </c>
       <c r="C53">
-        <v>-0.04965520300776965</v>
+        <v>-0.03839886612958451</v>
       </c>
       <c r="D53">
-        <v>-0.01257756705579479</v>
+        <v>0.0735774138516672</v>
       </c>
       <c r="E53">
-        <v>-0.05262436984720884</v>
+        <v>-0.00220073582470826</v>
       </c>
       <c r="F53">
-        <v>-0.03819962608729041</v>
+        <v>-0.03235321737290242</v>
       </c>
       <c r="G53">
-        <v>0.01050996817459098</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05699632048519958</v>
+      </c>
+      <c r="H53">
+        <v>0.04015802563897776</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02183290819339895</v>
+        <v>-0.02611066123813671</v>
       </c>
       <c r="C54">
-        <v>0.002295655841467772</v>
+        <v>-0.009189568870107283</v>
       </c>
       <c r="D54">
-        <v>-0.01847568744049679</v>
+        <v>-0.01234823218263562</v>
       </c>
       <c r="E54">
-        <v>-0.03159308553623843</v>
+        <v>-0.009129023217359738</v>
       </c>
       <c r="F54">
-        <v>0.04760710195791452</v>
+        <v>-0.01212485641431854</v>
       </c>
       <c r="G54">
-        <v>0.06868903889365348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03916220170904164</v>
+      </c>
+      <c r="H54">
+        <v>0.003399812989111495</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09864499602137608</v>
+        <v>-0.08055261763508054</v>
       </c>
       <c r="C55">
-        <v>-0.03101452102132696</v>
+        <v>-0.03417355858753641</v>
       </c>
       <c r="D55">
-        <v>-0.0179451299388729</v>
+        <v>0.06968651655386039</v>
       </c>
       <c r="E55">
-        <v>-0.0671317918654947</v>
+        <v>-0.01013283814822374</v>
       </c>
       <c r="F55">
-        <v>-0.03250800870238808</v>
+        <v>-0.02595506978540297</v>
       </c>
       <c r="G55">
-        <v>0.06519325463083876</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03240078908222693</v>
+      </c>
+      <c r="H55">
+        <v>0.05318502451335876</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1388970227156613</v>
+        <v>-0.1304594102279522</v>
       </c>
       <c r="C56">
-        <v>-0.06771065267052558</v>
+        <v>-0.05690530760707115</v>
       </c>
       <c r="D56">
-        <v>-0.05784839680529973</v>
+        <v>0.08723121308699232</v>
       </c>
       <c r="E56">
-        <v>-0.06575079333808798</v>
+        <v>-0.0006552808920265512</v>
       </c>
       <c r="F56">
-        <v>-0.06952287232641205</v>
+        <v>-0.05231271258566789</v>
       </c>
       <c r="G56">
-        <v>-0.03365238488777294</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.09383965369176915</v>
+      </c>
+      <c r="H56">
+        <v>0.06003181260517046</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04522776260374234</v>
+        <v>-0.03718137746969536</v>
       </c>
       <c r="C57">
-        <v>-0.0152954686255168</v>
+        <v>0.01038438011034069</v>
       </c>
       <c r="D57">
-        <v>0.01759027205201795</v>
+        <v>0.0359107502406868</v>
       </c>
       <c r="E57">
-        <v>0.01594894982054075</v>
+        <v>0.007251444966912002</v>
       </c>
       <c r="F57">
-        <v>0.06223149309440729</v>
+        <v>-0.01601474999666792</v>
       </c>
       <c r="G57">
-        <v>0.0613157730245394</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06771739739850577</v>
+      </c>
+      <c r="H57">
+        <v>-0.03874384217241945</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2144977844887867</v>
+        <v>-0.1667611318575417</v>
       </c>
       <c r="C58">
-        <v>-0.1236421962974187</v>
+        <v>-0.0556545667119434</v>
       </c>
       <c r="D58">
-        <v>0.06234695616823626</v>
+        <v>0.1536206857430688</v>
       </c>
       <c r="E58">
-        <v>-0.09601852231918059</v>
+        <v>0.1711181462253548</v>
       </c>
       <c r="F58">
-        <v>0.38706476399766</v>
+        <v>-0.03443416523722284</v>
       </c>
       <c r="G58">
-        <v>0.1107101146979364</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.7997021464506692</v>
+      </c>
+      <c r="H58">
+        <v>0.4298690445572571</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05764596864546133</v>
+        <v>-0.1520575054474874</v>
       </c>
       <c r="C59">
-        <v>0.0484004046816927</v>
+        <v>-0.01037302580885549</v>
       </c>
       <c r="D59">
-        <v>-0.07945058476964351</v>
+        <v>-0.2308460060180659</v>
       </c>
       <c r="E59">
-        <v>0.1652217859546054</v>
+        <v>0.01555250302573992</v>
       </c>
       <c r="F59">
-        <v>0.05671203235104416</v>
+        <v>0.005056469105287723</v>
       </c>
       <c r="G59">
-        <v>-0.01736696442645621</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02673669964683425</v>
+      </c>
+      <c r="H59">
+        <v>-0.03290350083867798</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1550468185161936</v>
+        <v>-0.1836367094338039</v>
       </c>
       <c r="C60">
-        <v>-0.09177064387467125</v>
+        <v>-0.0325328373236216</v>
       </c>
       <c r="D60">
-        <v>0.03565137621401758</v>
+        <v>0.02380377038459198</v>
       </c>
       <c r="E60">
-        <v>0.09530191088308952</v>
+        <v>0.04822634070861426</v>
       </c>
       <c r="F60">
-        <v>0.1789554486827515</v>
+        <v>-0.0556652201493258</v>
       </c>
       <c r="G60">
-        <v>-0.3117171017696059</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04309493128382774</v>
+      </c>
+      <c r="H60">
+        <v>-0.3684590821752299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01940312495599502</v>
+        <v>-0.0277106388641232</v>
       </c>
       <c r="C61">
-        <v>-0.02087306143015606</v>
+        <v>-0.01141670859056678</v>
       </c>
       <c r="D61">
-        <v>0.008865735817294659</v>
+        <v>0.05184658088365824</v>
       </c>
       <c r="E61">
-        <v>-0.01797471349796304</v>
+        <v>-0.004311009786866116</v>
       </c>
       <c r="F61">
-        <v>0.03739239813164409</v>
+        <v>-0.02509605899829881</v>
       </c>
       <c r="G61">
-        <v>0.01963490116040541</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.0210593285111226</v>
+      </c>
+      <c r="H61">
+        <v>-0.05650852630429518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.009999115516073536</v>
+        <v>-0.01432485168466747</v>
       </c>
       <c r="C63">
-        <v>-0.01708374746022462</v>
+        <v>0.001089784806660651</v>
       </c>
       <c r="D63">
-        <v>0.01949392514858471</v>
+        <v>0.01980166942722977</v>
       </c>
       <c r="E63">
-        <v>-0.02968489143230316</v>
+        <v>-0.005419251453568677</v>
       </c>
       <c r="F63">
-        <v>0.01661694990572351</v>
+        <v>-0.01407211557369519</v>
       </c>
       <c r="G63">
-        <v>0.06650407927499909</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01441912105518729</v>
+      </c>
+      <c r="H63">
+        <v>-0.008596748557810426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03557166195884647</v>
+        <v>-0.04309865772497763</v>
       </c>
       <c r="C64">
-        <v>-0.0004853870646696472</v>
+        <v>-0.01134646189188049</v>
       </c>
       <c r="D64">
-        <v>-0.01279422944263244</v>
+        <v>0.03454695405259278</v>
       </c>
       <c r="E64">
-        <v>-0.05152213649780747</v>
+        <v>-0.01128339127281948</v>
       </c>
       <c r="F64">
-        <v>0.03335729134863377</v>
+        <v>-0.007345991855218057</v>
       </c>
       <c r="G64">
-        <v>0.05836079324661084</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>4.909320831772892e-05</v>
+      </c>
+      <c r="H64">
+        <v>-0.0377692329108525</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.0280993573295207</v>
+        <v>-0.03759119200667763</v>
       </c>
       <c r="C65">
-        <v>-0.007721578450679671</v>
+        <v>-0.00126826990034955</v>
       </c>
       <c r="D65">
-        <v>0.000822279695538035</v>
+        <v>0.06491112462147543</v>
       </c>
       <c r="E65">
-        <v>-0.02548687943776634</v>
+        <v>-0.008233424000235152</v>
       </c>
       <c r="F65">
-        <v>0.02230030750384066</v>
+        <v>-0.03538521987368214</v>
       </c>
       <c r="G65">
-        <v>-0.01280145909611866</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.0005426602952866123</v>
+      </c>
+      <c r="H65">
+        <v>-0.07006378935444228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03053330351149802</v>
+        <v>-0.03421151944378212</v>
       </c>
       <c r="C66">
-        <v>-0.0540030975627679</v>
+        <v>-0.01569479855837157</v>
       </c>
       <c r="D66">
-        <v>0.002845120666200347</v>
+        <v>0.1051535949046575</v>
       </c>
       <c r="E66">
-        <v>-0.03818960951995825</v>
+        <v>0.005101954295446274</v>
       </c>
       <c r="F66">
-        <v>0.05682462127719416</v>
+        <v>-0.04544055188206357</v>
       </c>
       <c r="G66">
-        <v>0.0167709618307601</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03119658191118817</v>
+      </c>
+      <c r="H66">
+        <v>-0.07781337716958076</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01243439080548863</v>
+        <v>-0.04846504488466141</v>
       </c>
       <c r="C67">
-        <v>-0.00181471218760398</v>
+        <v>-0.02015716055575271</v>
       </c>
       <c r="D67">
-        <v>0.01564822829262896</v>
+        <v>0.01000348505504256</v>
       </c>
       <c r="E67">
-        <v>0.03254177024476119</v>
+        <v>0.004229568715577114</v>
       </c>
       <c r="F67">
-        <v>0.0203880913900524</v>
+        <v>-0.02331810597806452</v>
       </c>
       <c r="G67">
-        <v>-0.0007189619953392715</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.00693070606331902</v>
+      </c>
+      <c r="H67">
+        <v>-0.04238931550317464</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07413002751031232</v>
+        <v>-0.142797446931012</v>
       </c>
       <c r="C68">
-        <v>0.07216454802391765</v>
+        <v>0.0136316888698145</v>
       </c>
       <c r="D68">
-        <v>-0.09339132140576405</v>
+        <v>-0.2418098205500228</v>
       </c>
       <c r="E68">
-        <v>0.1659094047873881</v>
+        <v>0.009849219038231853</v>
       </c>
       <c r="F68">
-        <v>0.04707571294243329</v>
+        <v>0.0392257096956035</v>
       </c>
       <c r="G68">
-        <v>-0.05403852709609643</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.03570331313846402</v>
+      </c>
+      <c r="H68">
+        <v>0.03865140836662442</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06693798062010094</v>
+        <v>-0.0625919040337557</v>
       </c>
       <c r="C69">
-        <v>-0.04426134389930293</v>
+        <v>-0.02968613560164387</v>
       </c>
       <c r="D69">
-        <v>-0.01569458336267178</v>
+        <v>0.03913900443600179</v>
       </c>
       <c r="E69">
-        <v>-0.01417873651244514</v>
+        <v>0.0009388759118189202</v>
       </c>
       <c r="F69">
-        <v>0.01660784656131362</v>
+        <v>-0.0265597266668376</v>
       </c>
       <c r="G69">
-        <v>0.07808717357743021</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01999826799150449</v>
+      </c>
+      <c r="H69">
+        <v>-0.005182540408006281</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07838642940692829</v>
+        <v>-0.1376625922128561</v>
       </c>
       <c r="C71">
-        <v>0.07455900040024062</v>
+        <v>0.001670787096737131</v>
       </c>
       <c r="D71">
-        <v>-0.06714016218039787</v>
+        <v>-0.2097000191040737</v>
       </c>
       <c r="E71">
-        <v>0.2242015607174062</v>
+        <v>0.01651136989579373</v>
       </c>
       <c r="F71">
-        <v>0.04059014255796776</v>
+        <v>0.04447694525458971</v>
       </c>
       <c r="G71">
-        <v>0.008818480517686357</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.03587736874298527</v>
+      </c>
+      <c r="H71">
+        <v>0.01928571370008932</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1118901147089496</v>
+        <v>-0.0839119912711359</v>
       </c>
       <c r="C72">
-        <v>-0.0691335759869733</v>
+        <v>-0.04083305917007485</v>
       </c>
       <c r="D72">
-        <v>-0.04863653670008633</v>
+        <v>0.07339348961325713</v>
       </c>
       <c r="E72">
-        <v>-0.01768790239001604</v>
+        <v>0.0136806875307526</v>
       </c>
       <c r="F72">
-        <v>0.1311701754622476</v>
+        <v>-0.07389576654110473</v>
       </c>
       <c r="G72">
-        <v>-0.08156539800700781</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03358053616084177</v>
+      </c>
+      <c r="H72">
+        <v>-0.1394857993405718</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2298105006425749</v>
+        <v>-0.2523369447635478</v>
       </c>
       <c r="C73">
-        <v>-0.1182885680899044</v>
+        <v>-0.04678268787796174</v>
       </c>
       <c r="D73">
-        <v>0.04831659842763945</v>
+        <v>0.0833968520245108</v>
       </c>
       <c r="E73">
-        <v>0.1869192910205131</v>
+        <v>0.08559402239262426</v>
       </c>
       <c r="F73">
-        <v>0.2418019911288297</v>
+        <v>-0.06245303340490173</v>
       </c>
       <c r="G73">
-        <v>-0.4319327867859948</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.06067639175510934</v>
+      </c>
+      <c r="H73">
+        <v>-0.4859695014663574</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1342796201328905</v>
+        <v>-0.1259989927061774</v>
       </c>
       <c r="C74">
-        <v>-0.03962523314587454</v>
+        <v>-0.05577174866271711</v>
       </c>
       <c r="D74">
-        <v>-0.02489669338567279</v>
+        <v>0.09644826750367116</v>
       </c>
       <c r="E74">
-        <v>-0.03317401361307248</v>
+        <v>-0.002841054311538934</v>
       </c>
       <c r="F74">
-        <v>-0.06761780170620015</v>
+        <v>-0.03824070027367512</v>
       </c>
       <c r="G74">
-        <v>-0.01742604742154524</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07795360673502705</v>
+      </c>
+      <c r="H74">
+        <v>0.03173388604521334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2213885158775475</v>
+        <v>-0.2345223962477292</v>
       </c>
       <c r="C75">
-        <v>-0.1119595606292706</v>
+        <v>-0.1031210168612742</v>
       </c>
       <c r="D75">
-        <v>-0.1013759908996936</v>
+        <v>0.1439540410655216</v>
       </c>
       <c r="E75">
-        <v>-0.09716762915861059</v>
+        <v>0.01446757813504283</v>
       </c>
       <c r="F75">
-        <v>-0.09903232642250738</v>
+        <v>-0.09906951949466401</v>
       </c>
       <c r="G75">
-        <v>-0.003428493043350308</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1594048844318168</v>
+      </c>
+      <c r="H75">
+        <v>0.1381959100679757</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2685759994085434</v>
+        <v>-0.2080471845807758</v>
       </c>
       <c r="C76">
-        <v>-0.10548634584464</v>
+        <v>-0.09639895685169302</v>
       </c>
       <c r="D76">
-        <v>-0.1567000306457708</v>
+        <v>0.1369179583034489</v>
       </c>
       <c r="E76">
-        <v>-0.1201895024480094</v>
+        <v>-0.0323313867248876</v>
       </c>
       <c r="F76">
-        <v>-0.1539241530937834</v>
+        <v>-0.0948876785630077</v>
       </c>
       <c r="G76">
-        <v>-0.0170326249927212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1576513822907352</v>
+      </c>
+      <c r="H76">
+        <v>0.1349937835433491</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1233868366305362</v>
+        <v>-0.07740677155434429</v>
       </c>
       <c r="C77">
-        <v>-0.04785908536289481</v>
+        <v>-0.01455649640177937</v>
       </c>
       <c r="D77">
-        <v>0.08691989896835686</v>
+        <v>0.06767259462010565</v>
       </c>
       <c r="E77">
-        <v>-0.06178162417037739</v>
+        <v>0.008334221846609749</v>
       </c>
       <c r="F77">
-        <v>0.1736149368646376</v>
+        <v>0.004353915922462494</v>
       </c>
       <c r="G77">
-        <v>0.1975234519658929</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.0900121617685056</v>
+      </c>
+      <c r="H77">
+        <v>-0.008165654298850951</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07114248244923088</v>
+        <v>-0.04756382910874472</v>
       </c>
       <c r="C78">
-        <v>-0.04373316387034953</v>
+        <v>-0.01535084768627571</v>
       </c>
       <c r="D78">
-        <v>0.02578398095664501</v>
+        <v>0.05873660939622147</v>
       </c>
       <c r="E78">
-        <v>-0.07847135751215085</v>
+        <v>-0.003931214770352698</v>
       </c>
       <c r="F78">
-        <v>0.1101093501807148</v>
+        <v>-0.03084989155667752</v>
       </c>
       <c r="G78">
-        <v>0.03323511238281381</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.06095327265139198</v>
+      </c>
+      <c r="H78">
+        <v>-0.0717978977669835</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2643426296398864</v>
+        <v>-0.1450845444545881</v>
       </c>
       <c r="C80">
-        <v>0.8416232832132695</v>
+        <v>-0.03671191631790508</v>
       </c>
       <c r="D80">
-        <v>-0.1014221463002563</v>
+        <v>0.0597990209933206</v>
       </c>
       <c r="E80">
-        <v>-0.3991007768306279</v>
+        <v>-0.9461235910102962</v>
       </c>
       <c r="F80">
-        <v>0.09504906347176756</v>
+        <v>0.190082700366716</v>
       </c>
       <c r="G80">
-        <v>-0.1177597228980259</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1388814393957175</v>
+      </c>
+      <c r="H80">
+        <v>-0.0006976574180312255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1687148429772103</v>
+        <v>-0.1563181256496038</v>
       </c>
       <c r="C81">
-        <v>-0.07611069619916964</v>
+        <v>-0.0673860731125083</v>
       </c>
       <c r="D81">
-        <v>-0.1032463194275929</v>
+        <v>0.0900594738445803</v>
       </c>
       <c r="E81">
-        <v>-0.06950907269114262</v>
+        <v>-0.007507059543525259</v>
       </c>
       <c r="F81">
-        <v>-0.1203023576324458</v>
+        <v>-0.06495598749985662</v>
       </c>
       <c r="G81">
-        <v>-0.03384442941477497</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.107880681653563</v>
+      </c>
+      <c r="H81">
+        <v>0.08763772181328876</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03676326816934901</v>
+        <v>-0.03637080813268586</v>
       </c>
       <c r="C83">
-        <v>-0.03246047362909334</v>
+        <v>-0.007573656837351771</v>
       </c>
       <c r="D83">
-        <v>0.02407101304910236</v>
+        <v>0.02192307173568691</v>
       </c>
       <c r="E83">
-        <v>-0.005512883434521813</v>
+        <v>0.007716038618867555</v>
       </c>
       <c r="F83">
-        <v>0.05602514332006911</v>
+        <v>-0.01574234817889767</v>
       </c>
       <c r="G83">
-        <v>0.04210263019186097</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04600979774876832</v>
+      </c>
+      <c r="H83">
+        <v>-0.03514229022964377</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2450897830592005</v>
+        <v>-0.224894136965427</v>
       </c>
       <c r="C85">
-        <v>-0.1080774318636276</v>
+        <v>-0.08801271116088734</v>
       </c>
       <c r="D85">
-        <v>-0.1083419571194364</v>
+        <v>0.1487386268264779</v>
       </c>
       <c r="E85">
-        <v>-0.09552050737218469</v>
+        <v>0.007430997605496153</v>
       </c>
       <c r="F85">
-        <v>-0.1011520963813927</v>
+        <v>-0.0831828342464678</v>
       </c>
       <c r="G85">
-        <v>0.02230511709567238</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1709954105560707</v>
+      </c>
+      <c r="H85">
+        <v>0.09804631983118685</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.007766753242125972</v>
+        <v>-0.02773875099444232</v>
       </c>
       <c r="C86">
-        <v>-0.002378568900743624</v>
+        <v>-0.003778541692481606</v>
       </c>
       <c r="D86">
-        <v>0.02486026526963307</v>
+        <v>0.02992871764703793</v>
       </c>
       <c r="E86">
-        <v>-0.04313438235004377</v>
+        <v>0.003407854853948603</v>
       </c>
       <c r="F86">
-        <v>0.07335093005837851</v>
+        <v>-0.002148342367866225</v>
       </c>
       <c r="G86">
-        <v>0.02496915919361956</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.07875158004751803</v>
+      </c>
+      <c r="H86">
+        <v>-0.09213348900976641</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.04090253666148019</v>
+        <v>-0.03046020623465449</v>
       </c>
       <c r="C87">
-        <v>0.004292568596198691</v>
+        <v>-0.005021055605976145</v>
       </c>
       <c r="D87">
-        <v>0.01606789822764143</v>
+        <v>0.04357256601766153</v>
       </c>
       <c r="E87">
-        <v>-0.0154897267119163</v>
+        <v>-0.008567682585144218</v>
       </c>
       <c r="F87">
-        <v>0.1173317066720787</v>
+        <v>-0.01582262272132014</v>
       </c>
       <c r="G87">
-        <v>0.04926480109120543</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08186778113820246</v>
+      </c>
+      <c r="H87">
+        <v>-0.07514393368722377</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.009640673571970756</v>
+        <v>-0.03897588462598079</v>
       </c>
       <c r="C88">
-        <v>0.01244085056670287</v>
+        <v>0.01051506510404933</v>
       </c>
       <c r="D88">
-        <v>-0.0110882273117508</v>
+        <v>0.0154828241804172</v>
       </c>
       <c r="E88">
-        <v>-0.0131873675237137</v>
+        <v>-0.01044597965933963</v>
       </c>
       <c r="F88">
-        <v>-0.0009747267909709905</v>
+        <v>-0.01480315885074064</v>
       </c>
       <c r="G88">
-        <v>0.05016756796232961</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.004169569345229906</v>
+      </c>
+      <c r="H88">
+        <v>-0.02215763203078843</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1046469886699661</v>
+        <v>-0.2350075018580701</v>
       </c>
       <c r="C89">
-        <v>0.1087562071189419</v>
+        <v>0.005546957423921746</v>
       </c>
       <c r="D89">
-        <v>-0.1152255734283681</v>
+        <v>-0.3664822581805474</v>
       </c>
       <c r="E89">
-        <v>0.2811625825396873</v>
+        <v>0.02426373578810206</v>
       </c>
       <c r="F89">
-        <v>0.07497424519137934</v>
+        <v>0.02878713633852244</v>
       </c>
       <c r="G89">
-        <v>0.02096917715939791</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.002361784312667941</v>
+      </c>
+      <c r="H89">
+        <v>-0.01346521339793882</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09506223767436849</v>
+        <v>-0.1885229009887547</v>
       </c>
       <c r="C90">
-        <v>0.1452387896457273</v>
+        <v>0.006666893647891418</v>
       </c>
       <c r="D90">
-        <v>-0.1368478966631627</v>
+        <v>-0.3258914844216174</v>
       </c>
       <c r="E90">
-        <v>0.2921559999014696</v>
+        <v>0.01656352750192965</v>
       </c>
       <c r="F90">
-        <v>0.02288935345923652</v>
+        <v>0.05704378398214383</v>
       </c>
       <c r="G90">
-        <v>0.02847701976655329</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.008688098956648342</v>
+      </c>
+      <c r="H90">
+        <v>0.04090219095953387</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2965569740328951</v>
+        <v>-0.2377701338428044</v>
       </c>
       <c r="C91">
-        <v>-0.1369442756572652</v>
+        <v>-0.1009788985440042</v>
       </c>
       <c r="D91">
-        <v>-0.1110687967581129</v>
+        <v>0.1278488636864845</v>
       </c>
       <c r="E91">
-        <v>-0.09678994565228638</v>
+        <v>0.0142003522475811</v>
       </c>
       <c r="F91">
-        <v>-0.2314956978274577</v>
+        <v>-0.08296819062153793</v>
       </c>
       <c r="G91">
-        <v>-0.03764134305158052</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1903398605116067</v>
+      </c>
+      <c r="H91">
+        <v>0.1757276839293318</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1733550803245391</v>
+        <v>-0.2411205779576118</v>
       </c>
       <c r="C92">
-        <v>0.08431142216818761</v>
+        <v>-0.0611345674804707</v>
       </c>
       <c r="D92">
-        <v>-0.2876202267551022</v>
+        <v>-0.2636200672255762</v>
       </c>
       <c r="E92">
-        <v>0.3253774478033413</v>
+        <v>0.004933210134443239</v>
       </c>
       <c r="F92">
-        <v>-0.1268568637571426</v>
+        <v>-0.006420565695119853</v>
       </c>
       <c r="G92">
-        <v>0.5348272644569292</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.005272898127480092</v>
+      </c>
+      <c r="H92">
+        <v>0.1368050632138526</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.0954612292280148</v>
+        <v>-0.2124199880341605</v>
       </c>
       <c r="C93">
-        <v>0.1374184644871677</v>
+        <v>-0.00306844040166478</v>
       </c>
       <c r="D93">
-        <v>-0.1538207027257872</v>
+        <v>-0.3419122434749989</v>
       </c>
       <c r="E93">
-        <v>0.4120898916192083</v>
+        <v>0.0373387118260024</v>
       </c>
       <c r="F93">
-        <v>-0.01646540500128739</v>
+        <v>0.05927707874063048</v>
       </c>
       <c r="G93">
-        <v>-0.0567411115768239</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.0006076887322239903</v>
+      </c>
+      <c r="H93">
+        <v>-0.01297191117773578</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2945021520777834</v>
+        <v>-0.2614921743680119</v>
       </c>
       <c r="C94">
-        <v>-0.1752082048786413</v>
+        <v>-0.09028551754692661</v>
       </c>
       <c r="D94">
-        <v>-0.2056742632906059</v>
+        <v>0.122785968345542</v>
       </c>
       <c r="E94">
-        <v>-0.102882536604136</v>
+        <v>0.02874291625775361</v>
       </c>
       <c r="F94">
-        <v>-0.1867731687907994</v>
+        <v>-0.1314433043263294</v>
       </c>
       <c r="G94">
-        <v>-0.04643081847227606</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1856707176517005</v>
+      </c>
+      <c r="H94">
+        <v>0.2153803141234391</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.05820448951422902</v>
+        <v>-0.06207407658742191</v>
       </c>
       <c r="C95">
-        <v>-0.06708503234693776</v>
+        <v>-0.03592337723845291</v>
       </c>
       <c r="D95">
-        <v>0.04530061544621963</v>
+        <v>0.08510733045773869</v>
       </c>
       <c r="E95">
-        <v>-0.07880232963291708</v>
+        <v>0.07883938093379089</v>
       </c>
       <c r="F95">
-        <v>0.01671843989588003</v>
+        <v>-0.00798950078744255</v>
       </c>
       <c r="G95">
-        <v>0.173396129651888</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.05066166022543374</v>
+      </c>
+      <c r="H95">
+        <v>-0.04238644428685844</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1739529257385311</v>
+        <v>-0.1891833908028836</v>
       </c>
       <c r="C98">
-        <v>-0.0507250254002854</v>
+        <v>-0.06441940517267389</v>
       </c>
       <c r="D98">
-        <v>0.051157647384491</v>
+        <v>0.03743588263467378</v>
       </c>
       <c r="E98">
-        <v>0.1264098227822586</v>
+        <v>0.05049688261651571</v>
       </c>
       <c r="F98">
-        <v>0.1343766320655384</v>
+        <v>-0.02267060823944249</v>
       </c>
       <c r="G98">
-        <v>-0.3457363788959822</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.08162281070789267</v>
+      </c>
+      <c r="H98">
+        <v>-0.341125951996877</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005569992723478487</v>
+        <v>-0.01634831515032865</v>
       </c>
       <c r="C101">
-        <v>-0.01331254914444245</v>
+        <v>-1.462706130692975e-05</v>
       </c>
       <c r="D101">
-        <v>0.002131716113525697</v>
+        <v>0.01122069478439722</v>
       </c>
       <c r="E101">
-        <v>-0.07283850023483779</v>
+        <v>-0.007380883263370107</v>
       </c>
       <c r="F101">
-        <v>0.1679024300681855</v>
+        <v>-0.02823503655982923</v>
       </c>
       <c r="G101">
-        <v>0.1478922322052402</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1008566343723195</v>
+      </c>
+      <c r="H101">
+        <v>0.0299076614146416</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1114102634617431</v>
+        <v>-0.1091731250215488</v>
       </c>
       <c r="C102">
-        <v>-0.05528872171408217</v>
+        <v>-0.03534095622631057</v>
       </c>
       <c r="D102">
-        <v>-0.04052336981936861</v>
+        <v>0.07282667719578964</v>
       </c>
       <c r="E102">
-        <v>-0.07385236873155163</v>
+        <v>0.001303890100846268</v>
       </c>
       <c r="F102">
-        <v>-0.09492354501950581</v>
+        <v>-0.04481042890636919</v>
       </c>
       <c r="G102">
-        <v>-0.002808292120207403</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.09569405876265338</v>
+      </c>
+      <c r="H102">
+        <v>0.06857304629465474</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.03522212704425406</v>
+        <v>-0.01762369623224279</v>
       </c>
       <c r="C103">
-        <v>-0.002014381729302384</v>
+        <v>-0.006862825621117083</v>
       </c>
       <c r="D103">
-        <v>-0.01451419185256804</v>
+        <v>0.0144716759557582</v>
       </c>
       <c r="E103">
-        <v>-0.03566731429478961</v>
+        <v>-0.009659197334436943</v>
       </c>
       <c r="F103">
-        <v>0.00970782571745343</v>
+        <v>-0.009389815296078496</v>
       </c>
       <c r="G103">
-        <v>0.004338467393280128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.00123523402220103</v>
+      </c>
+      <c r="H103">
+        <v>0.01423962256850659</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2235984798092351</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9536889164290797</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.102295126935543</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02531052764230917</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1315674606115028</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.03491366091627454</v>
+      </c>
+      <c r="H104">
+        <v>0.04966328570758939</v>
       </c>
     </row>
   </sheetData>
